--- a/Air Con and Electrical (Yellow Page).xlsx
+++ b/Air Con and Electrical (Yellow Page).xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f77d448be0ee6f06/Desktop/Phone_number_scrapping/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{C0289718-80B3-4D84-869D-5B064D87F5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{828D9F9B-7040-4229-AC4D-14F8DDCDE695}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{177A0FA6-C092-4816-8439-A022AEFAE3D1}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="QLD" sheetId="1" r:id="rId1"/>
-    <sheet name="NSW" sheetId="2" r:id="rId2"/>
-    <sheet name="VIC" sheetId="3" r:id="rId3"/>
-    <sheet name="SA" sheetId="5" r:id="rId4"/>
-    <sheet name="ACT" sheetId="6" r:id="rId5"/>
-    <sheet name="WA" sheetId="7" r:id="rId6"/>
-    <sheet name="NT" sheetId="8" r:id="rId7"/>
-    <sheet name="TAS" sheetId="9" r:id="rId8"/>
+    <sheet name="QLD" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NSW" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="VIC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ACT" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="WA" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="NT" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="TAS" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Suburb</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,21 +53,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,35 +446,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A192E7-442C-4BF5-8B3A-548E499410A9}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Suburb</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -462,35 +494,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91A3CC4-5FA1-475F-8938-A20F17A4CD3C}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Suburb</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -499,35 +542,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C85457-0BE0-4F40-BF14-2949A0B45B09}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Suburb</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -536,35 +590,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E228E0E3-19A9-40B9-8136-A3C2101D83F7}">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Suburb</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -573,35 +638,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CC7AC9-FF1A-4157-A730-EC24395C699F}">
-  <sheetPr codeName="Sheet5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Suburb</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -610,35 +686,46 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC53A846-2F5C-4095-8FB0-C5F9586EC7CA}">
-  <sheetPr codeName="Sheet6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet6">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Suburb</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -647,35 +734,46 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F9B5D9-AD43-4D82-8335-20AEC51D3CE1}">
-  <sheetPr codeName="Sheet7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet7">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Suburb</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -684,8 +782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6E3B66-518D-467E-A4CD-C5EA135D2214}">
-  <sheetPr codeName="Sheet8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet8">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -693,26 +794,34 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Suburb</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Air Con and Electrical (Yellow Page).xlsx
+++ b/Air Con and Electrical (Yellow Page).xlsx
@@ -1,40 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f77d448be0ee6f06/Desktop/Phone_number_scrapping/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_49C2DB01F8910691A2120DE2A6FE717E9F3C9C8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6201D2BE-3A0D-4E74-96BE-415D69A1EFCC}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-26505" yWindow="3615" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="QLD" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NSW" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="VIC" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="SA" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ACT" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="WA" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="NT" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="TAS" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="QLD" sheetId="1" r:id="rId1"/>
+    <sheet name="NSW" sheetId="2" r:id="rId2"/>
+    <sheet name="VIC" sheetId="3" r:id="rId3"/>
+    <sheet name="SA" sheetId="4" r:id="rId4"/>
+    <sheet name="ACT" sheetId="5" r:id="rId5"/>
+    <sheet name="WA" sheetId="6" r:id="rId6"/>
+    <sheet name="NT" sheetId="7" r:id="rId7"/>
+    <sheet name="TAS" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Suburb</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,80 +75,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -446,46 +409,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Company Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Phone Number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Suburb</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -493,47 +482,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Company Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Phone Number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Suburb</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -541,47 +519,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Company Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Phone Number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Suburb</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -589,47 +556,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Company Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Phone Number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Suburb</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -637,47 +593,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Company Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Phone Number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Suburb</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -685,47 +630,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Company Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Phone Number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Suburb</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -733,95 +667,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet7">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Company Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Phone Number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Suburb</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet8">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="8" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Company Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Phone Number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Suburb</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Air Con and Electrical (Yellow Page).xlsx
+++ b/Air Con and Electrical (Yellow Page).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f77d448be0ee6f06/Desktop/Phone_number_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_49C2DB01F8910691A2120DE2A6FE717E9F3C9C8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6201D2BE-3A0D-4E74-96BE-415D69A1EFCC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_4AACE6A86435B31FC067E8DBED3CD90836598163" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3937649-6867-4F4C-9197-9EFA589B8426}"/>
   <bookViews>
-    <workbookView xWindow="-26505" yWindow="3615" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QLD" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="136">
   <si>
     <t>Company Name</t>
   </si>
@@ -39,6 +39,402 @@
   </si>
   <si>
     <t>Website</t>
+  </si>
+  <si>
+    <t>Tanners Electrical, Refrigeration and Air Conditioning</t>
+  </si>
+  <si>
+    <t>(07) 4121 6295</t>
+  </si>
+  <si>
+    <t>Maryborough QLD 4650</t>
+  </si>
+  <si>
+    <t>http://www.tannerselectrical.com</t>
+  </si>
+  <si>
+    <t>Arctic Cold Refrigeration Sales And Service Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>(07) 4124 7999</t>
+  </si>
+  <si>
+    <t>Urraween QLD 4655</t>
+  </si>
+  <si>
+    <t>http://www.arcticcold.com.au</t>
+  </si>
+  <si>
+    <t>Thomson Refrigeration &amp; Air Conditioning</t>
+  </si>
+  <si>
+    <t>(07) 5462 2307</t>
+  </si>
+  <si>
+    <t>Gatton QLD 4343</t>
+  </si>
+  <si>
+    <t>https://www.thomsonrac.com.au</t>
+  </si>
+  <si>
+    <t>Homedeal Air Conditioning QLD</t>
+  </si>
+  <si>
+    <t>(07) 3186 0287</t>
+  </si>
+  <si>
+    <t>Coorparoo QLD 4151</t>
+  </si>
+  <si>
+    <t>http://www.homedealairconditioning.com.au</t>
+  </si>
+  <si>
+    <t>Atmosphere Air Conditioning &amp; Refrigeration</t>
+  </si>
+  <si>
+    <t>(02) 4982 6068</t>
+  </si>
+  <si>
+    <t>Taylors Beach NSW 2316</t>
+  </si>
+  <si>
+    <t>https://atmosphereaircon.com.au/air</t>
+  </si>
+  <si>
+    <t>Shear Comfort Air Conditioning</t>
+  </si>
+  <si>
+    <t>(02) 4620 4420</t>
+  </si>
+  <si>
+    <t>Campbelltown NSW 2560</t>
+  </si>
+  <si>
+    <t>https://www.shearcomfortairconditioningnsw.com.au</t>
+  </si>
+  <si>
+    <t>T.C. Air &amp; Electric</t>
+  </si>
+  <si>
+    <t>(02) 4285 3645</t>
+  </si>
+  <si>
+    <t>Bulli NSW 2516</t>
+  </si>
+  <si>
+    <t>https://www.tcair.com.au</t>
+  </si>
+  <si>
+    <t>Penrith Air Supply Pty Ltd</t>
+  </si>
+  <si>
+    <t>(02) 4708 9537</t>
+  </si>
+  <si>
+    <t>Jamisontown NSW 2750</t>
+  </si>
+  <si>
+    <t>http://www.penrithair.com.au</t>
+  </si>
+  <si>
+    <t>Harmony Air Conditioning</t>
+  </si>
+  <si>
+    <t>0402 831 588</t>
+  </si>
+  <si>
+    <t>Liverpool NSW 2170</t>
+  </si>
+  <si>
+    <t>https://www.harmonyairconditioning.com.au</t>
+  </si>
+  <si>
+    <t>Coolrite Air Conditioning</t>
+  </si>
+  <si>
+    <t>(02) 4988 5713</t>
+  </si>
+  <si>
+    <t>Newcastle NSW 2300</t>
+  </si>
+  <si>
+    <t>http://www.coolriteairconditioning.com.au</t>
+  </si>
+  <si>
+    <t>Vital Air Conditioning Services Pty Ltd</t>
+  </si>
+  <si>
+    <t>(02) 8763 0983</t>
+  </si>
+  <si>
+    <t>Rouse Hill NSW 2155</t>
+  </si>
+  <si>
+    <t>http://www.vitalaircon.com.au</t>
+  </si>
+  <si>
+    <t>Unicorn Air Conditioning &amp; Refrigeration Pty Ltd</t>
+  </si>
+  <si>
+    <t>0430 106 161</t>
+  </si>
+  <si>
+    <t>West Pymble NSW 2073</t>
+  </si>
+  <si>
+    <t>http://www.unicornair.com.au</t>
+  </si>
+  <si>
+    <t>All Coast Air Conditioning</t>
+  </si>
+  <si>
+    <t>0410 613 003</t>
+  </si>
+  <si>
+    <t>Charmhaven NSW 2263</t>
+  </si>
+  <si>
+    <t>http://www.allcoastair.com.au</t>
+  </si>
+  <si>
+    <t>Global Airconditioning &amp; Heating</t>
+  </si>
+  <si>
+    <t>(02) 6228 1193</t>
+  </si>
+  <si>
+    <t>Crestwood NSW 2620</t>
+  </si>
+  <si>
+    <t>https://www.globalairandheating.com.au</t>
+  </si>
+  <si>
+    <t>Future Air Conditioning</t>
+  </si>
+  <si>
+    <t>(02) 9896 1766</t>
+  </si>
+  <si>
+    <t>Prospect NSW 2148</t>
+  </si>
+  <si>
+    <t>https://www.futureair.com.au</t>
+  </si>
+  <si>
+    <t>Southern AirCon &amp; Refrigeration</t>
+  </si>
+  <si>
+    <t>0401 317 694</t>
+  </si>
+  <si>
+    <t>East Lynne NSW 2536</t>
+  </si>
+  <si>
+    <t>http://southernairbatemansbay.com.au</t>
+  </si>
+  <si>
+    <t>Hawkesbury Refrigeration &amp; Air Conditioning</t>
+  </si>
+  <si>
+    <t>(02) 4577 5233</t>
+  </si>
+  <si>
+    <t>South Windsor NSW 2756</t>
+  </si>
+  <si>
+    <t>https://hra.net.au</t>
+  </si>
+  <si>
+    <t>Leumeah Air Conditioning Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>(02) 4625 5663</t>
+  </si>
+  <si>
+    <t>https://www.leumeahair.com.au</t>
+  </si>
+  <si>
+    <t>(02) 4987 1488</t>
+  </si>
+  <si>
+    <t>Belmont NSW 2280</t>
+  </si>
+  <si>
+    <t>John Stevens Plumbing Pty Ltd</t>
+  </si>
+  <si>
+    <t>0419 882 330</t>
+  </si>
+  <si>
+    <t>Ballarat East VIC 3350</t>
+  </si>
+  <si>
+    <t>http://www.johnstevensplumbing.com.au</t>
+  </si>
+  <si>
+    <t>Hit The Switch</t>
+  </si>
+  <si>
+    <t>1300 205 205</t>
+  </si>
+  <si>
+    <t>Malvern East VIC 3145</t>
+  </si>
+  <si>
+    <t>https://hittheswitch.com.au</t>
+  </si>
+  <si>
+    <t>Blain-Air Heating &amp; Cooling</t>
+  </si>
+  <si>
+    <t>(03) 9852 1550</t>
+  </si>
+  <si>
+    <t>Doncaster VIC 3108</t>
+  </si>
+  <si>
+    <t>https://www.blainair.com.au</t>
+  </si>
+  <si>
+    <t>All Climate Solutions</t>
+  </si>
+  <si>
+    <t>(03) 8558 6103</t>
+  </si>
+  <si>
+    <t>Mulgrave VIC 3170</t>
+  </si>
+  <si>
+    <t>http://www.allclimatesolutions.net.au</t>
+  </si>
+  <si>
+    <t>Airfit</t>
+  </si>
+  <si>
+    <t>0400 690 160</t>
+  </si>
+  <si>
+    <t>Essendon VIC 3040</t>
+  </si>
+  <si>
+    <t>http://www.airfit.com.au</t>
+  </si>
+  <si>
+    <t>Metropolitan Air Conditioning</t>
+  </si>
+  <si>
+    <t>1300 731 878</t>
+  </si>
+  <si>
+    <t>Preston VIC 3072</t>
+  </si>
+  <si>
+    <t>https://www.metropolitanairconditioning.com.au/locations/vic/air-conditioning-preston</t>
+  </si>
+  <si>
+    <t>Air Control Australia Pty Ltd</t>
+  </si>
+  <si>
+    <t>1300 290 683</t>
+  </si>
+  <si>
+    <t>Melbourne VIC 3000</t>
+  </si>
+  <si>
+    <t>https://aircontrol.net.au</t>
+  </si>
+  <si>
+    <t>A-Temp Heating And Airconditioning</t>
+  </si>
+  <si>
+    <t>(03) 9579 3633</t>
+  </si>
+  <si>
+    <t>Huntingdale VIC 3166</t>
+  </si>
+  <si>
+    <t>http://www.a-temp.com.au</t>
+  </si>
+  <si>
+    <t>Airepair Air Conditioning Services Pty Ltd</t>
+  </si>
+  <si>
+    <t>(03) 9238 6000</t>
+  </si>
+  <si>
+    <t>Officer VIC 3809</t>
+  </si>
+  <si>
+    <t>http://www.airepair.com.au</t>
+  </si>
+  <si>
+    <t>Morphett Air Pty Ltd</t>
+  </si>
+  <si>
+    <t>(08) 8293 6532</t>
+  </si>
+  <si>
+    <t>Adelaide SA 5000</t>
+  </si>
+  <si>
+    <t>http://www.morphettair.com.au</t>
+  </si>
+  <si>
+    <t>Quick Fix Air Conditioning &amp; Electrical Adelaide</t>
+  </si>
+  <si>
+    <t>0421 968 551</t>
+  </si>
+  <si>
+    <t>Salisbury SA 5108</t>
+  </si>
+  <si>
+    <t>http://www.quickfixelectrical.com.au</t>
+  </si>
+  <si>
+    <t>Mr Emergency</t>
+  </si>
+  <si>
+    <t>1300 189 251</t>
+  </si>
+  <si>
+    <t>https://www.mremergency.com.au/service-areas/sa/air-conditioning-adelaide</t>
+  </si>
+  <si>
+    <t>Ken Hall Air Conditioning</t>
+  </si>
+  <si>
+    <t>(08) 8151 0810</t>
+  </si>
+  <si>
+    <t>Kent Town SA 5067</t>
+  </si>
+  <si>
+    <t>https://www.kenhallplumbers.com.au</t>
+  </si>
+  <si>
+    <t>AirConditioning Canberra</t>
+  </si>
+  <si>
+    <t>0400 452 142</t>
+  </si>
+  <si>
+    <t>Mitchell ACT 2911</t>
+  </si>
+  <si>
+    <t>https://www.airconditioningcbr.com.au</t>
+  </si>
+  <si>
+    <t>Aircon Express Perth</t>
+  </si>
+  <si>
+    <t>(08) 9259 4636</t>
+  </si>
+  <si>
+    <t>Perth WA 6000</t>
+  </si>
+  <si>
+    <t>https://www.airconexpress.com.au</t>
   </si>
 </sst>
 </file>
@@ -411,11 +807,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +835,62 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -448,11 +899,446 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,19 +1363,74 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,19 +1455,32 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,19 +1505,32 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,14 +1560,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,78 +1594,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Air Con and Electrical (Yellow Page).xlsx
+++ b/Air Con and Electrical (Yellow Page).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\WebScraping_Company\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrewl\Desktop\WebScraping_Company\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F103BE-502D-41EB-BDEA-6064AFA39754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700B0CE6-EA49-4C8A-B145-F3DB9ABDE2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="465" windowWidth="21345" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QLD" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>Company Name</t>
   </si>
@@ -40,31 +40,22 @@
   <si>
     <t>Website</t>
   </si>
-  <si>
-    <t>Northernair</t>
-  </si>
-  <si>
-    <t>(02) 6623 0000</t>
-  </si>
-  <si>
-    <t>Tweed Heads South NSW 2486</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -429,19 +420,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD140"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,21 +456,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A980" sqref="A2:XFD980"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,17 +482,6 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -519,15 +499,15 @@
       <selection activeCell="A2" sqref="A2:XFD980"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,15 +536,15 @@
       <selection activeCell="A707" sqref="A2:XFD707"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,15 +573,15 @@
       <selection activeCell="A163" sqref="A2:XFD163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,15 +610,15 @@
       <selection activeCell="A2" sqref="A2:XFD827"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,15 +647,15 @@
       <selection activeCell="A182" sqref="A2:XFD182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,19 +680,19 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/Air Con and Electrical (Yellow Page).xlsx
+++ b/Air Con and Electrical (Yellow Page).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrewl\Desktop\WebScraping_Company\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700B0CE6-EA49-4C8A-B145-F3DB9ABDE2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A850C31-A4F4-47E8-A94E-84FE483B9DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QLD" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
   <si>
     <t>Company Name</t>
   </si>
@@ -39,25 +39,426 @@
   </si>
   <si>
     <t>Website</t>
+  </si>
+  <si>
+    <t>Tanners Electrical, Refrigeration and Air Conditioning</t>
+  </si>
+  <si>
+    <t>(07) 4121 6295</t>
+  </si>
+  <si>
+    <t>Maryborough QLD 4650</t>
+  </si>
+  <si>
+    <t>http://www.tannerselectrical.com/</t>
+  </si>
+  <si>
+    <t>Arctic Cold Refrigeration Sales And Service Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>(07) 4124 7999</t>
+  </si>
+  <si>
+    <t>Urraween QLD 4655</t>
+  </si>
+  <si>
+    <t>http://www.arcticcold.com.au/</t>
+  </si>
+  <si>
+    <t>Homedeal Air Conditioning QLD</t>
+  </si>
+  <si>
+    <t>(07) 3186 0287</t>
+  </si>
+  <si>
+    <t>Coorparoo QLD 4151</t>
+  </si>
+  <si>
+    <t>http://www.homedealairconditioning.com.au/</t>
+  </si>
+  <si>
+    <t>Coldaz Airconditioning &amp; Heating</t>
+  </si>
+  <si>
+    <t>(07) 3809 4484</t>
+  </si>
+  <si>
+    <t>Hillcrest QLD 4118</t>
+  </si>
+  <si>
+    <t>http://www.coldaz.com.au/</t>
+  </si>
+  <si>
+    <t>Sparkrite Electrical</t>
+  </si>
+  <si>
+    <t>(07) 3287 7200</t>
+  </si>
+  <si>
+    <t>Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>https://www.sparkriteelectrical.com.au/</t>
+  </si>
+  <si>
+    <t>Always Cool Air Conditioning &amp; Refrigeration</t>
+  </si>
+  <si>
+    <t>(07) 5455 6464</t>
+  </si>
+  <si>
+    <t>Noosaville QLD 4566</t>
+  </si>
+  <si>
+    <t>https://www.alwayscool.com.au/</t>
+  </si>
+  <si>
+    <t>Paul Wiedman Electrical</t>
+  </si>
+  <si>
+    <t>(07) 4633 2169</t>
+  </si>
+  <si>
+    <t>Harristown QLD 4350</t>
+  </si>
+  <si>
+    <t>http://www.wiedmanelectrical.com.au/</t>
+  </si>
+  <si>
+    <t>Enterprise Air That's Cool</t>
+  </si>
+  <si>
+    <t>(07) 4154 3211</t>
+  </si>
+  <si>
+    <t>Svensson Heights QLD 4670</t>
+  </si>
+  <si>
+    <t>https://www.enterpriseair.com.au/</t>
+  </si>
+  <si>
+    <t>General Air Conditioning Services Pty Ltd</t>
+  </si>
+  <si>
+    <t>(07) 5571 7212</t>
+  </si>
+  <si>
+    <t>Upper Coomera QLD 4209</t>
+  </si>
+  <si>
+    <t>http://www.generalair.com.au/</t>
+  </si>
+  <si>
+    <t>GT Air</t>
+  </si>
+  <si>
+    <t>(07) 3281 9100</t>
+  </si>
+  <si>
+    <t>West Ipswich QLD 4305</t>
+  </si>
+  <si>
+    <t>http://www.gtair.com.au/</t>
+  </si>
+  <si>
+    <t>Air Supply Air Conditioning</t>
+  </si>
+  <si>
+    <t>0405 461 597</t>
+  </si>
+  <si>
+    <t>Reedy Creek QLD 4227</t>
+  </si>
+  <si>
+    <t>http://www.airsupplyaircon.com.au/</t>
+  </si>
+  <si>
+    <t>Ridge Air Conditioning</t>
+  </si>
+  <si>
+    <t>(07) 3205 6044</t>
+  </si>
+  <si>
+    <t>Bracken Ridge QLD 4017</t>
+  </si>
+  <si>
+    <t>http://www.ridgeair.net.au/</t>
+  </si>
+  <si>
+    <t>Surf Air Airconditioning Pty Ltd</t>
+  </si>
+  <si>
+    <t>(07) 5661 3366</t>
+  </si>
+  <si>
+    <t>Nerang QLD 4211</t>
+  </si>
+  <si>
+    <t>http://www.surfair.net.au/</t>
+  </si>
+  <si>
+    <t>Golding Air Conditioning &amp; Heating</t>
+  </si>
+  <si>
+    <t>(07) 4596 8012</t>
+  </si>
+  <si>
+    <t>Dalby QLD 4405</t>
+  </si>
+  <si>
+    <t>http://www.goldingair.com.au/</t>
+  </si>
+  <si>
+    <t>Keppel Koolit Air Conditioning Installation &amp; Sales Pty Ltd</t>
+  </si>
+  <si>
+    <t>(07) 4922 7556</t>
+  </si>
+  <si>
+    <t>Allenstown QLD 4700</t>
+  </si>
+  <si>
+    <t>http://www.keppelkoolit.com.au/</t>
+  </si>
+  <si>
+    <t>Action Air Conditioning</t>
+  </si>
+  <si>
+    <t>(07) 5539 6866</t>
+  </si>
+  <si>
+    <t>Ashmore QLD 4214</t>
+  </si>
+  <si>
+    <t>http://www.actionairconditioning.com.au/</t>
+  </si>
+  <si>
+    <t>Gladstone Refrigeration &amp; Air-Conditioning</t>
+  </si>
+  <si>
+    <t>(07) 4972 7218</t>
+  </si>
+  <si>
+    <t>Gladstone QLD 4680</t>
+  </si>
+  <si>
+    <t>https://airconditioninggladstone.com.au/</t>
+  </si>
+  <si>
+    <t>MVO Services</t>
+  </si>
+  <si>
+    <t>(07) 4152 7277</t>
+  </si>
+  <si>
+    <t>Bundaberg Central QLD 4670</t>
+  </si>
+  <si>
+    <t>https://mvocateringsolutions.com.au/</t>
+  </si>
+  <si>
+    <t>Fassifern Lighting &amp; Electrical</t>
+  </si>
+  <si>
+    <t>0408 732 514</t>
+  </si>
+  <si>
+    <t>Kalbar QLD 4309</t>
+  </si>
+  <si>
+    <t>http://www.fassifernelectrical.com.au/</t>
+  </si>
+  <si>
+    <t>Cass Cooling</t>
+  </si>
+  <si>
+    <t>(07) 4927 4951</t>
+  </si>
+  <si>
+    <t>Park Avenue QLD 4701</t>
+  </si>
+  <si>
+    <t>https://www.casscooling.com.au/</t>
+  </si>
+  <si>
+    <t>NKM Air Conditioning &amp; Refrigeration Pty Ltd</t>
+  </si>
+  <si>
+    <t>0408 001 734</t>
+  </si>
+  <si>
+    <t>Toowoomba City QLD 4350</t>
+  </si>
+  <si>
+    <t>Michael De Pinto Air-Conditioning &amp; Refrigeration</t>
+  </si>
+  <si>
+    <t>(07) 4969 0511</t>
+  </si>
+  <si>
+    <t>North Mackay QLD 4740</t>
+  </si>
+  <si>
+    <t>Lawson Air</t>
+  </si>
+  <si>
+    <t>(07) 3219 1817</t>
+  </si>
+  <si>
+    <t>Mansfield QLD 4122</t>
+  </si>
+  <si>
+    <t>http://www.lawsonair.com.au/</t>
+  </si>
+  <si>
+    <t>River City Airconditioning Pty Ltd</t>
+  </si>
+  <si>
+    <t>(07) 3288 8366</t>
+  </si>
+  <si>
+    <t>Raceview QLD 4305</t>
+  </si>
+  <si>
+    <t>http://www.rivercityair.com.au/</t>
+  </si>
+  <si>
+    <t>Cairns Climate Control</t>
+  </si>
+  <si>
+    <t>(07) 4035 4199</t>
+  </si>
+  <si>
+    <t>Aeroglen QLD 4870</t>
+  </si>
+  <si>
+    <t>Relax Airconditioning QLD</t>
+  </si>
+  <si>
+    <t>(07) 3806 2992</t>
+  </si>
+  <si>
+    <t>Tanah Merah QLD 4128</t>
+  </si>
+  <si>
+    <t>https://relaxairconditioning.com.au/</t>
+  </si>
+  <si>
+    <t>A.R.T Airconditioning, Electrical &amp; Sheetmetal Pty Ltd</t>
+  </si>
+  <si>
+    <t>(07) 4743 6276</t>
+  </si>
+  <si>
+    <t>Ryan QLD 4825</t>
+  </si>
+  <si>
+    <t>http://www.artair.com.au/</t>
+  </si>
+  <si>
+    <t>Kinson Mechanical Services</t>
+  </si>
+  <si>
+    <t>0424 260 614</t>
+  </si>
+  <si>
+    <t>Wavell Heights QLD 4012</t>
+  </si>
+  <si>
+    <t>http://www.kinsonmechservices.com/</t>
+  </si>
+  <si>
+    <t>Mercury Installations</t>
+  </si>
+  <si>
+    <t>0402 906 794</t>
+  </si>
+  <si>
+    <t>Zillmere QLD 4034</t>
+  </si>
+  <si>
+    <t>http://www.mercuryservices.com.au/</t>
+  </si>
+  <si>
+    <t>All Cool Industries</t>
+  </si>
+  <si>
+    <t>(07) 3289 3005</t>
+  </si>
+  <si>
+    <t>Samford Valley QLD 4520</t>
+  </si>
+  <si>
+    <t>http://www.allcool.com.au/</t>
+  </si>
+  <si>
+    <t>South East Air Conditioning Services</t>
+  </si>
+  <si>
+    <t>(07) 3822 2693</t>
+  </si>
+  <si>
+    <t>Wellington Point QLD 4160</t>
+  </si>
+  <si>
+    <t>http://www.southeastairconditioning.com.au/index.html</t>
+  </si>
+  <si>
+    <t>Coolco Air Conditioning Pty Ltd</t>
+  </si>
+  <si>
+    <t>(07) 5576 7877</t>
+  </si>
+  <si>
+    <t>Burleigh Heads QLD 4220</t>
+  </si>
+  <si>
+    <t>http://www.coolco.com.au/</t>
+  </si>
+  <si>
+    <t>Glennair Airconditioning</t>
+  </si>
+  <si>
+    <t>(07) 5593 8000</t>
+  </si>
+  <si>
+    <t>http://www.glennair.com.au/</t>
+  </si>
+  <si>
+    <t>Border Refrigeration and Air Conditioning</t>
+  </si>
+  <si>
+    <t>(07) 4681 0275</t>
+  </si>
+  <si>
+    <t>Stanthorpe QLD 4380</t>
+  </si>
+  <si>
+    <t>https://www.border-rac.com.au/contact</t>
+  </si>
+  <si>
+    <t>Airforce Pty Ltd</t>
+  </si>
+  <si>
+    <t>(07) 3881 1213</t>
+  </si>
+  <si>
+    <t>Brendale QLD 4500</t>
+  </si>
+  <si>
+    <t>http://www.airforceaircon.com.au/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Aptos Narrow"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -418,9 +819,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -446,8 +847,488 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -485,7 +1366,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -522,7 +1402,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -559,7 +1438,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -596,7 +1474,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -633,7 +1510,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -670,7 +1546,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -680,7 +1555,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -707,7 +1582,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>